--- a/inst/extdata/tma2/tma2_clean_map.xlsx
+++ b/inst/extdata/tma2/tma2_clean_map.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11018"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannahokada/Documents/TMAtools/inst/extdata/tma2/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D3F1E85-BC77-1C4C-BE13-7B7D7F27DC6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TMA map" sheetId="1" r:id="rId1"/>
-    <sheet name="ER" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -53,13 +58,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -97,7 +110,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -131,6 +144,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -165,9 +179,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -340,14 +355,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2">
+    <row r="2" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C2">
         <v>1</v>
       </c>
@@ -373,7 +388,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C3">
         <v>5</v>
       </c>
@@ -399,7 +414,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C7">
         <v>9</v>
       </c>
@@ -425,7 +440,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C8">
         <v>11</v>
       </c>
@@ -449,187 +464,6 @@
       </c>
       <c r="L8">
         <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C2:L8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="2">
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/tma2/tma2_clean_map.xlsx
+++ b/inst/extdata/tma2/tma2_clean_map.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11018"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11109"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannahokada/Documents/TMAtools/inst/extdata/tma2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D3F1E85-BC77-1C4C-BE13-7B7D7F27DC6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CA07346-BD85-974D-9973-B0F1B07E415D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15860" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TMA map" sheetId="1" r:id="rId1"/>
@@ -358,7 +358,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -376,94 +378,114 @@
         <v>2</v>
       </c>
       <c r="I2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L2">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>5</v>
-      </c>
-      <c r="E3">
-        <v>6</v>
-      </c>
-      <c r="F3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K3">
         <v>8</v>
       </c>
       <c r="L3">
         <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <v>10</v>
+      </c>
+      <c r="J4">
+        <v>10</v>
+      </c>
+      <c r="K4">
+        <v>11</v>
+      </c>
+      <c r="L4">
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C7">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D7">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E7">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F7">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I7">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J7">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K7">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="L7">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C8">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D8">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E8">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F8">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I8">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="J8">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="K8">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L8">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/tma2/tma2_clean_map.xlsx
+++ b/inst/extdata/tma2/tma2_clean_map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannahokada/Documents/TMAtools/inst/extdata/tma2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CA07346-BD85-974D-9973-B0F1B07E415D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D71CD97-2138-224C-AB19-B069E6023123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15860" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12700" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TMA map" sheetId="1" r:id="rId1"/>
